--- a/biology/Zoologie/Albatros_des_Antipodes/Albatros_des_Antipodes.xlsx
+++ b/biology/Zoologie/Albatros_des_Antipodes/Albatros_des_Antipodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diomedea antipodensis
 L'Albatros des Antipodes (Diomedea antipodensis) est une espèce d'oiseaux de mer de la famille des Diomedeidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps considéré comme une sous-espèce de l'Albatros hurleur, Diomedea antipodensis est le plus sombre des grands albatros.
 Les femelles sont plus sombres que les mâles. Les plus âgés de ces derniers présentent parfois une couronne de plumes foncées et des taches disséminées sur la poitrine.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche à travers les îles Antipodes, Campbell et Auckland.
 </t>
